--- a/studentsList.xlsx
+++ b/studentsList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaSant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaSant\Downloads\studentstatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68659852-15D9-48E6-B860-E5BF500ACA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37955C80-1042-4CAB-9B1C-3E32460E44AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8E9C94E5-4230-4E39-A9EF-DBD42556CBE2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>الاسم</t>
   </si>
@@ -28,117 +28,36 @@
     <t>الرقم القومى</t>
   </si>
   <si>
-    <t>الكلية</t>
-  </si>
-  <si>
-    <t>العنوان</t>
-  </si>
-  <si>
-    <t>التقدير</t>
-  </si>
-  <si>
-    <t>نسبة التقدير</t>
-  </si>
-  <si>
-    <t>تاريخ التقدم</t>
-  </si>
-  <si>
     <t>ملاحظات</t>
   </si>
   <si>
     <t>اميره ماهر محمد ابوليفه</t>
   </si>
   <si>
-    <t>كلية طب الأسنان - بكالوريوس طب الفم والأسنان - المستوى الأول</t>
-  </si>
-  <si>
-    <t>الجيزه - قسم الواحات البحرية - الباويطى</t>
-  </si>
-  <si>
-    <t>جيد جدا</t>
-  </si>
-  <si>
     <t>خديجه خالد صابر عطوه علي</t>
   </si>
   <si>
-    <t>كلية الهندسة - هندسة العمارة والتصميم البيئي - المستوى الثالث</t>
-  </si>
-  <si>
-    <t>الشرقيه - العاشر من رمضان</t>
-  </si>
-  <si>
     <t>دنيا محمد أحمد إبراهيم</t>
   </si>
   <si>
-    <t>كلية طب الأسنان - بكالوريوس طب الفم والأسنان - المستوى الثانى</t>
-  </si>
-  <si>
-    <t>الاسكندريه - البيطاش</t>
-  </si>
-  <si>
-    <t>جيد</t>
-  </si>
-  <si>
     <t>روان أحمد إسماعيل محمد</t>
   </si>
   <si>
-    <t>كلية تكنولوجيا العلوم الصحية التطبيقية - برنامج المختبرات الطبية - المستوى الثانى</t>
-  </si>
-  <si>
-    <t>الدقهلية - السنبلاوين - كفر غنام</t>
-  </si>
-  <si>
     <t>ساره محمد عبدالحميد عبدالهادي</t>
   </si>
   <si>
-    <t>كلية علوم الحاسب وتكنولوجيا المعلومات - علوم البيانات - المستوى الثانى</t>
-  </si>
-  <si>
-    <t>الفيوم - مركز يوسف الصديق - المشرك قبلى</t>
-  </si>
-  <si>
-    <t>مقبول</t>
-  </si>
-  <si>
-    <t>15/8/2024 02:18 PM</t>
-  </si>
-  <si>
     <t>صفاء اشرف محمود عبدالسيد</t>
   </si>
   <si>
-    <t>اسوان - مركز دراو - الجعافرة</t>
-  </si>
-  <si>
-    <t>ناجح</t>
-  </si>
-  <si>
-    <t>18/8/2024 05:13 PM</t>
-  </si>
-  <si>
     <t>منار السيد صبحى حسينى</t>
   </si>
   <si>
-    <t>الشرقيه - مشتول السوق - كفر دهمشا</t>
-  </si>
-  <si>
-    <t>15/8/2024 09:10 AM</t>
-  </si>
-  <si>
     <t>نورهان محمد بكر الصديق علي معوض</t>
   </si>
   <si>
-    <t>كلية العلوم - التكنولوجيا الحيوية والهندسة الوراثية - المستوى الثانى</t>
-  </si>
-  <si>
-    <t>الدقهلية - المطرية - العصافرة</t>
-  </si>
-  <si>
     <t>ولاء عمر حسن عبدالسلام</t>
   </si>
   <si>
-    <t>بنى سويف - ناصر</t>
-  </si>
-  <si>
     <t>لم يستدل عليه</t>
   </si>
   <si>
@@ -167,6 +86,12 @@
   </si>
   <si>
     <t>30503122202344</t>
+  </si>
+  <si>
+    <t>مرفوض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقبول لم يستدل </t>
   </si>
 </sst>
 </file>
@@ -1050,25 +975,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFABA9ED-DE39-4B3E-A8F2-B4A3207707C2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,253 +1002,145 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>85.68</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45573.897222222222</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3">
-        <v>45573.274305555555</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>79</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45573.602777777778</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.78</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45634.924305555556</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>82</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45634.838194444441</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
-        <v>74</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45573.449305555558</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/studentsList.xlsx
+++ b/studentsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaSant\Downloads\studentstatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37955C80-1042-4CAB-9B1C-3E32460E44AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C94A6-2482-497B-BCB9-F62536C219A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8E9C94E5-4230-4E39-A9EF-DBD42556CBE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{8E9C94E5-4230-4E39-A9EF-DBD42556CBE2}"/>
   </bookViews>
   <sheets>
     <sheet name="studentsList" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>مرفوض</t>
   </si>
   <si>
-    <t xml:space="preserve">مقبول لم يستدل </t>
+    <t xml:space="preserve">مقبول </t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>

--- a/studentsList.xlsx
+++ b/studentsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaSant\Downloads\studentstatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C94A6-2482-497B-BCB9-F62536C219A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E163F9-662A-4E34-9C47-60B668ECC360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{8E9C94E5-4230-4E39-A9EF-DBD42556CBE2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>الاسم</t>
   </si>
@@ -92,6 +92,285 @@
   </si>
   <si>
     <t xml:space="preserve">مقبول </t>
+  </si>
+  <si>
+    <t>30503122202346</t>
+  </si>
+  <si>
+    <t>ولاء عمر</t>
+  </si>
+  <si>
+    <t>30503122202348</t>
+  </si>
+  <si>
+    <t>بسنت حيدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لم يستدل </t>
+  </si>
+  <si>
+    <t>منه الله محمد محمد زكى سلامه</t>
+  </si>
+  <si>
+    <t>احمد علاءالدين سمير عبدالغنى عطيه</t>
+  </si>
+  <si>
+    <t>عمر احمد مهنى عبدالعظيم</t>
+  </si>
+  <si>
+    <t>رحمه احمد محمد عبدالباقي</t>
+  </si>
+  <si>
+    <t>منه مبروك علي احمد علي</t>
+  </si>
+  <si>
+    <t>الاء عصام محمد نخله داود</t>
+  </si>
+  <si>
+    <t>دينا عصام محمد نخله داود</t>
+  </si>
+  <si>
+    <t>احمد ايمن رشاد محمد خطاب</t>
+  </si>
+  <si>
+    <t>عبدالرحمن احمد محمدي علي العزب</t>
+  </si>
+  <si>
+    <t>عبدالله محمد ابوالفتوح السيد موسى</t>
+  </si>
+  <si>
+    <t>عبدالله محمد عبدالله محمد ابوفراج</t>
+  </si>
+  <si>
+    <t>كريم احمد محمد محمد غزى</t>
+  </si>
+  <si>
+    <t>مؤمن سلامه ابواليزيد حامد غنيم</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم احمد ابراهيم يوسف</t>
+  </si>
+  <si>
+    <t>محمد سند فرحات مصيلحي محمد</t>
+  </si>
+  <si>
+    <t>محمود عبدالرازق عباس رجب محمد</t>
+  </si>
+  <si>
+    <t>مصطفى احمد مصطفى الجعيصي</t>
+  </si>
+  <si>
+    <t>وليد عبدالحميد عبدالمقصود علي ابوالعلا</t>
+  </si>
+  <si>
+    <t>يوسف هاني مصطفى رمضان محمد</t>
+  </si>
+  <si>
+    <t>بسنت خالد محمد زكي ابوعلي</t>
+  </si>
+  <si>
+    <t>شمس السيد محمد احمد الطنطاوي</t>
+  </si>
+  <si>
+    <t>منه الله طه احمد عبدالقادر غطاس</t>
+  </si>
+  <si>
+    <t>نورهان محمد مصطفى صالح رجب</t>
+  </si>
+  <si>
+    <t>ابانوب ملاك انور جيد واصف</t>
+  </si>
+  <si>
+    <t>احمد محمد احمد حسن محمد غازى</t>
+  </si>
+  <si>
+    <t>احمد ياسر محمود عبدالغني محمود ابوشلبي</t>
+  </si>
+  <si>
+    <t>اسلام عادل شعبان رشوان موسي</t>
+  </si>
+  <si>
+    <t>اسلام مجدي رشاد ابراهيم مصطفي</t>
+  </si>
+  <si>
+    <t>عبدالرحمن عمرو علي ابراهيم الصناديدي</t>
+  </si>
+  <si>
+    <t>عبدالرحمن محمد سمير السيد حجازى</t>
+  </si>
+  <si>
+    <t>عبدالله علي حميلي حفني علي</t>
+  </si>
+  <si>
+    <t>مارفن اشرف سمير صبحي غالي</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم صبري السيد عبدالوارث</t>
+  </si>
+  <si>
+    <t>محمد السيد محمد السيد علي</t>
+  </si>
+  <si>
+    <t>محمد سعد محمد ابراهيم الدسوقي برسي</t>
+  </si>
+  <si>
+    <t>محمد عصام كمال سليم سليم</t>
+  </si>
+  <si>
+    <t>ياسين حسن علي محمد سمك</t>
+  </si>
+  <si>
+    <t>يوسف جابر حسان جبل ابراهيم</t>
+  </si>
+  <si>
+    <t>اسراء بهاء ابراهيم اسماعيل الشربينى</t>
+  </si>
+  <si>
+    <t>اسماء جابر شعبان ابراهيم جابر</t>
+  </si>
+  <si>
+    <t>الاء اشرف فاروق على محمد</t>
+  </si>
+  <si>
+    <t>رحمه ممدوح عبدالحفيظ عبدالعال احمد</t>
+  </si>
+  <si>
+    <t>شهد احمد رمضان احمد سعد</t>
+  </si>
+  <si>
+    <t>شهد خالد عادل ذكي</t>
+  </si>
+  <si>
+    <t>فاطمه محمد ابراهيم محمد درويش</t>
+  </si>
+  <si>
+    <t>كوثر السعيد احمد ابراهيم عبدالجواد</t>
+  </si>
+  <si>
+    <t>لمياء احمد مصطفى محمد</t>
+  </si>
+  <si>
+    <t>مريم عادل محمد رفعت ابراهيم حسن</t>
+  </si>
+  <si>
+    <t>مريم مصطفى عبدالسلام على حسين</t>
+  </si>
+  <si>
+    <t>منه الله علي رفعت شحاته شاهين</t>
+  </si>
+  <si>
+    <t>هبه ربيع السيد ربيع السيد</t>
+  </si>
+  <si>
+    <t>هند منصور احمد منصور</t>
+  </si>
+  <si>
+    <t>محمد عيد رمضان عبدالمعطى يوسف</t>
+  </si>
+  <si>
+    <t>ايه حماده على محمد على</t>
+  </si>
+  <si>
+    <t>دنيا محمد مخيمر جاد محمد</t>
+  </si>
+  <si>
+    <t>منه سامى عبدالله عبدالخالق عبدالخالق</t>
+  </si>
+  <si>
+    <t>محمد بدر رمضان فهمي</t>
+  </si>
+  <si>
+    <t>مصطفى عبدالهادى صالح قطب عباس</t>
+  </si>
+  <si>
+    <t>خلود عبده محمد على عيساوى</t>
+  </si>
+  <si>
+    <t>رباب عبدالحميد محمد عبدالحميد بدر</t>
+  </si>
+  <si>
+    <t>شمس رجب فتح الله محمود هجرس</t>
+  </si>
+  <si>
+    <t>مياده صلاح ناجى سعد</t>
+  </si>
+  <si>
+    <t>هاجر عمرو محمد حلمى محمد بلال</t>
+  </si>
+  <si>
+    <t>شريهان مهدي عبدالله عبدالفضيل</t>
+  </si>
+  <si>
+    <t>احمد عامر عبدالرحمن حسن</t>
+  </si>
+  <si>
+    <t>احمد مصطفى نورالدين عبدالغنى</t>
+  </si>
+  <si>
+    <t>ارميا اشرف صلاح اسحق</t>
+  </si>
+  <si>
+    <t>بيتر فايز شوقى زغلول</t>
+  </si>
+  <si>
+    <t>بيشوي باسم زكي موسى</t>
+  </si>
+  <si>
+    <t>سليم خالد سليم افندي</t>
+  </si>
+  <si>
+    <t>صبحي جمال صبحي اسحق</t>
+  </si>
+  <si>
+    <t>عبدالله احمد رمضان احمد</t>
+  </si>
+  <si>
+    <t>كيرلس محب ولسن داوود</t>
+  </si>
+  <si>
+    <t>مؤمن محسن جابر على</t>
+  </si>
+  <si>
+    <t>مروان حماده عبدالنبى ابراهيم</t>
+  </si>
+  <si>
+    <t>مهند احمد حسانين عبدالحفيظ</t>
+  </si>
+  <si>
+    <t>يوسف اسامه علوي قمصان</t>
+  </si>
+  <si>
+    <t>يوسف عوض حسن محمد</t>
+  </si>
+  <si>
+    <t>شاديه بولس وليم تادروس</t>
+  </si>
+  <si>
+    <t>مها محي الدين عبدالناصر موسي</t>
+  </si>
+  <si>
+    <t>مهرائيل رافت عبده خليل</t>
+  </si>
+  <si>
+    <t>101836</t>
+  </si>
+  <si>
+    <t>101853</t>
+  </si>
+  <si>
+    <t>101856</t>
+  </si>
+  <si>
+    <t>101918</t>
+  </si>
+  <si>
+    <t>Bassant Haider</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>103629</t>
   </si>
 </sst>
 </file>
@@ -422,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -537,6 +816,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -582,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -600,6 +894,14 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,17 +1277,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFABA9ED-DE39-4B3E-A8F2-B4A3207707C2}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A1669" workbookViewId="0">
+      <selection activeCell="B1687" sqref="B1687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1037,7 +1339,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1045,14 +1347,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1369,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1384,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1399,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1414,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1429,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,6 +1443,8652 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12">
+        <v>101837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12">
+        <v>101838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12">
+        <v>101839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12">
+        <v>101840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="12">
+        <v>101841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12">
+        <v>101842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12">
+        <v>101843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12">
+        <v>101844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="12">
+        <v>101845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12">
+        <v>101846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12">
+        <v>101847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12">
+        <v>101848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="12">
+        <v>101849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="12">
+        <v>101850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="12">
+        <v>101851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="12">
+        <v>101852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="12">
+        <v>101854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="12">
+        <v>101855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="12">
+        <v>101857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="12">
+        <v>101858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="12">
+        <v>101859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="12">
+        <v>101860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="12">
+        <v>101861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="12">
+        <v>101862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="12">
+        <v>101863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="12">
+        <v>101864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="12">
+        <v>101865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="12">
+        <v>101866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="12">
+        <v>101867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="12">
+        <v>101868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="12">
+        <v>101869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="12">
+        <v>101870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="12">
+        <v>101871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="12">
+        <v>101872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="12">
+        <v>101873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="12">
+        <v>101874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="12">
+        <v>101875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="12">
+        <v>101876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="12">
+        <v>101877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="12">
+        <v>101878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="12">
+        <v>101879</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="12">
+        <v>101880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="12">
+        <v>101881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="12">
+        <v>101882</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="12">
+        <v>101883</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="12">
+        <v>101884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="12">
+        <v>101885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="12">
+        <v>101886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="12">
+        <v>101887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="12">
+        <v>101888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="12">
+        <v>101889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="12">
+        <v>101890</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="12">
+        <v>101891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="12">
+        <v>101892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="12">
+        <v>101893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="12">
+        <v>101894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="12">
+        <v>101895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="12">
+        <v>101896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="12">
+        <v>101897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="12">
+        <v>101898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="12">
+        <v>101899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="12">
+        <v>101900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="12">
+        <v>101901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="12">
+        <v>101902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="12">
+        <v>101903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="12">
+        <v>101904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="12">
+        <v>101905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="12">
+        <v>101906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="12">
+        <v>101907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="12">
+        <v>101908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="12">
+        <v>101909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="12">
+        <v>101910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="12">
+        <v>101911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="12">
+        <v>101912</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="12">
+        <v>101913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="12">
+        <v>101914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="12">
+        <v>101915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="12">
+        <v>101916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="8">
+        <v>101917</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="8">
+        <v>101919</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="8">
+        <v>101920</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="8">
+        <v>101921</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="8">
+        <v>101922</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="8">
+        <v>101923</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="8">
+        <v>101924</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="8">
+        <v>101925</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="8">
+        <v>101926</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="8">
+        <v>101927</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="8">
+        <v>101928</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="8">
+        <v>101929</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="8">
+        <v>101930</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="8">
+        <v>101931</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="8">
+        <v>101932</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="8">
+        <v>101933</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="8">
+        <v>101934</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="8">
+        <v>101935</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="8">
+        <v>101936</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="8">
+        <v>101937</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="8">
+        <v>101938</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="8">
+        <v>101939</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="8">
+        <v>101940</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="8">
+        <v>101941</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="8">
+        <v>101942</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="8">
+        <v>101943</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="8">
+        <v>101944</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="8">
+        <v>101945</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="8">
+        <v>101946</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="8">
+        <v>101947</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="8">
+        <v>101948</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="8">
+        <v>101949</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="8">
+        <v>101950</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="8">
+        <v>101951</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="8">
+        <v>101952</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="8">
+        <v>101953</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="8">
+        <v>101954</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="8">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="8">
+        <v>102001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="8">
+        <v>102002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="8">
+        <v>102003</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="8">
+        <v>102004</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="8">
+        <v>102005</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="8">
+        <v>102006</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="8">
+        <v>102007</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="8">
+        <v>102008</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="8">
+        <v>102009</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="8">
+        <v>102010</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="8">
+        <v>102011</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="8">
+        <v>102012</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="8">
+        <v>102013</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="8">
+        <v>102014</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="8">
+        <v>102015</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="8">
+        <v>102016</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="8">
+        <v>102017</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="8">
+        <v>102018</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="8">
+        <v>102019</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="8">
+        <v>102020</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="8">
+        <v>102021</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="8">
+        <v>102022</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="8">
+        <v>102023</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="8">
+        <v>102024</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="8">
+        <v>102025</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="8">
+        <v>102026</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="8">
+        <v>102027</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="8">
+        <v>102028</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="8">
+        <v>102029</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="8">
+        <v>102030</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="8">
+        <v>102031</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="8">
+        <v>102032</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="8">
+        <v>102033</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="8">
+        <v>102034</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="8">
+        <v>102035</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="8">
+        <v>102036</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="8">
+        <v>102037</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="8">
+        <v>102050</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="8">
+        <v>102051</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="8">
+        <v>102100</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="8">
+        <v>102101</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="8">
+        <v>102102</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="8">
+        <v>102106</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="8">
+        <v>102107</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="8">
+        <v>102110</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="8">
+        <v>102115</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="8">
+        <v>102120</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="8">
+        <v>102121</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="8">
+        <v>102122</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="8">
+        <v>102123</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="8">
+        <v>102124</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="8">
+        <v>102125</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="8">
+        <v>102126</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="8">
+        <v>102127</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="8">
+        <v>102128</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="8">
+        <v>102129</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="8">
+        <v>102130</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="8">
+        <v>102131</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="8">
+        <v>102132</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="8">
+        <v>102133</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="8">
+        <v>102134</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="8">
+        <v>102135</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="8">
+        <v>102136</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="8">
+        <v>102137</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="8">
+        <v>102138</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="8">
+        <v>102139</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="8">
+        <v>102140</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="8">
+        <v>102141</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="8">
+        <v>102142</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="8">
+        <v>102143</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="8">
+        <v>102144</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="8">
+        <v>102145</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="8">
+        <v>102146</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="8">
+        <v>102147</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="8">
+        <v>102148</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="8">
+        <v>102149</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="8">
+        <v>102150</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="8">
+        <v>102151</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="8">
+        <v>102152</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="8">
+        <v>102153</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="8">
+        <v>102154</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="8">
+        <v>102155</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="8">
+        <v>102156</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="8">
+        <v>102157</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="8">
+        <v>102158</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="8">
+        <v>102159</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="8">
+        <v>102160</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="8">
+        <v>102161</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="8">
+        <v>102162</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="8">
+        <v>102163</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="8">
+        <v>102164</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="8">
+        <v>102165</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="8">
+        <v>102166</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="8">
+        <v>102167</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="8">
+        <v>102168</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="8">
+        <v>102169</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="8">
+        <v>102170</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="8">
+        <v>102171</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="8">
+        <v>102172</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="8">
+        <v>102173</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="8">
+        <v>102174</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="8">
+        <v>102175</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="8">
+        <v>102176</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="8">
+        <v>102177</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="8">
+        <v>102178</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="8">
+        <v>102179</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="8">
+        <v>102180</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="8">
+        <v>102181</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="8">
+        <v>102182</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="8">
+        <v>102183</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="8">
+        <v>102184</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="8">
+        <v>102185</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="8">
+        <v>102186</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="8">
+        <v>102187</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="8">
+        <v>102188</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="8">
+        <v>102189</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="8">
+        <v>102190</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="8">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="8">
+        <v>102192</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="8">
+        <v>102193</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="8">
+        <v>102194</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="8">
+        <v>102195</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="8">
+        <v>102196</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="8">
+        <v>102197</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="8">
+        <v>102198</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="8">
+        <v>102199</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="8">
+        <v>102200</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="8">
+        <v>102201</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="8">
+        <v>102202</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="8">
+        <v>102203</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="8">
+        <v>102204</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="8">
+        <v>102205</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="8">
+        <v>102206</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="8">
+        <v>102207</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="8">
+        <v>102208</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="8">
+        <v>102209</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="8">
+        <v>102210</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="8">
+        <v>102211</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="8">
+        <v>102212</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="8">
+        <v>102213</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="8">
+        <v>102214</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="8">
+        <v>102215</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="8">
+        <v>102216</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="8">
+        <v>102217</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="8">
+        <v>102218</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="8">
+        <v>102219</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="8">
+        <v>102220</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="8">
+        <v>102221</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="8">
+        <v>102222</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="8">
+        <v>102223</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="8">
+        <v>102224</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="8">
+        <v>102225</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="8">
+        <v>102226</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="8">
+        <v>102227</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="8">
+        <v>102228</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="8">
+        <v>102229</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="8">
+        <v>102230</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="8">
+        <v>102231</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="8">
+        <v>102232</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="8">
+        <v>102233</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="8">
+        <v>102234</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="8">
+        <v>102235</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="8">
+        <v>102236</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="8">
+        <v>102237</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="8">
+        <v>102238</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="8">
+        <v>102239</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="8">
+        <v>102240</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="8">
+        <v>102241</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="8">
+        <v>102242</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="8">
+        <v>102243</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="8">
+        <v>102244</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="8">
+        <v>102245</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="8">
+        <v>102246</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="8">
+        <v>102247</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="8">
+        <v>102248</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="8">
+        <v>102249</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="8">
+        <v>102250</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="8">
+        <v>102251</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="8">
+        <v>102252</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="8">
+        <v>102253</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="8">
+        <v>102254</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="8">
+        <v>102255</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="8">
+        <v>102256</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="8">
+        <v>102257</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="8">
+        <v>102258</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="8">
+        <v>102259</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="8">
+        <v>102260</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="8">
+        <v>102261</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="8">
+        <v>102262</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="8">
+        <v>102263</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="8">
+        <v>102264</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="8">
+        <v>102265</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="8">
+        <v>102266</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="8">
+        <v>102267</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="8">
+        <v>102268</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="8">
+        <v>102269</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="8">
+        <v>102270</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="8">
+        <v>102271</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="8">
+        <v>102272</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="8">
+        <v>102273</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="8">
+        <v>102274</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="8">
+        <v>102275</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="8">
+        <v>102276</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="8">
+        <v>102277</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="8">
+        <v>102278</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="8">
+        <v>102279</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="8">
+        <v>102280</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="8">
+        <v>102281</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="8">
+        <v>102282</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="8">
+        <v>102283</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="8">
+        <v>102284</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="8">
+        <v>102285</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="8">
+        <v>102286</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="8">
+        <v>102287</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="8">
+        <v>102288</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="8">
+        <v>102289</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="8">
+        <v>102290</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="8">
+        <v>102291</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="8">
+        <v>102292</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="8">
+        <v>102293</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="8">
+        <v>102294</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="8">
+        <v>102295</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="8">
+        <v>102296</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="8">
+        <v>102297</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="8">
+        <v>102298</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="8">
+        <v>102299</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="8">
+        <v>102300</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="8">
+        <v>102301</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="8">
+        <v>102302</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="8">
+        <v>102303</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="8">
+        <v>102304</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="8">
+        <v>102305</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="8">
+        <v>102306</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="8">
+        <v>102307</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="8">
+        <v>102308</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="8">
+        <v>102309</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="8">
+        <v>102310</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="8">
+        <v>102311</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="8">
+        <v>102312</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="8">
+        <v>102313</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="8">
+        <v>102314</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="8">
+        <v>102315</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="8">
+        <v>102316</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="8">
+        <v>102317</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="8">
+        <v>102318</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="8">
+        <v>102319</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="8">
+        <v>102320</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="8">
+        <v>102321</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="8">
+        <v>102322</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="8">
+        <v>102323</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="8">
+        <v>102324</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="8">
+        <v>102325</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="8">
+        <v>102326</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="8">
+        <v>102327</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="8">
+        <v>102328</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="8">
+        <v>102329</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="8">
+        <v>102330</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="8">
+        <v>102331</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="8">
+        <v>102332</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="8">
+        <v>102333</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="8">
+        <v>102334</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="8">
+        <v>102335</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="8">
+        <v>102336</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="8">
+        <v>102337</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="8">
+        <v>102338</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="8">
+        <v>102339</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="8">
+        <v>102340</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="8">
+        <v>102341</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="8">
+        <v>102342</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="8">
+        <v>102343</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="8">
+        <v>102344</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="8">
+        <v>102345</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="8">
+        <v>102346</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="8">
+        <v>102347</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="8">
+        <v>102348</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="8">
+        <v>102349</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="8">
+        <v>102350</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="8">
+        <v>102351</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="8">
+        <v>102352</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="8">
+        <v>102353</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="8">
+        <v>102354</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="8">
+        <v>102355</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="8">
+        <v>102356</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="8">
+        <v>102357</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="8">
+        <v>102358</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="8">
+        <v>102359</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="8">
+        <v>102360</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="8">
+        <v>102361</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="8">
+        <v>102362</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="8">
+        <v>102363</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="8">
+        <v>102364</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="8">
+        <v>102365</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="8">
+        <v>102366</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="8">
+        <v>102367</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="8">
+        <v>102368</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="8">
+        <v>102369</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="8">
+        <v>102370</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="8">
+        <v>102371</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="8">
+        <v>102372</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="8">
+        <v>102373</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="8">
+        <v>102374</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="8">
+        <v>102375</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="8">
+        <v>102376</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="8">
+        <v>102377</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="8">
+        <v>102378</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="8">
+        <v>102379</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="8">
+        <v>102380</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="8">
+        <v>102381</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="8">
+        <v>102382</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="8">
+        <v>102383</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="8">
+        <v>102384</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="8">
+        <v>102385</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="8">
+        <v>102386</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="8">
+        <v>102387</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="8">
+        <v>102388</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="8">
+        <v>102389</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="8">
+        <v>102390</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="8">
+        <v>102391</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="8">
+        <v>102392</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="8">
+        <v>102393</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="8">
+        <v>102394</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="8">
+        <v>102395</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="8">
+        <v>102396</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="8">
+        <v>102397</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="8">
+        <v>102398</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="8">
+        <v>102399</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="8">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="8">
+        <v>102401</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="8">
+        <v>102402</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="8">
+        <v>102403</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="8">
+        <v>102404</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="8">
+        <v>102405</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="8">
+        <v>102406</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="8">
+        <v>102407</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="8">
+        <v>102408</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="8">
+        <v>102409</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="8">
+        <v>102410</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="8">
+        <v>102411</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="8">
+        <v>102412</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="8">
+        <v>102413</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="8">
+        <v>102414</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="8">
+        <v>102415</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="8">
+        <v>102416</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="8">
+        <v>102417</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="8">
+        <v>102418</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="8">
+        <v>102419</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="8">
+        <v>102420</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="8">
+        <v>102421</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="8">
+        <v>102422</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="8">
+        <v>102423</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="8">
+        <v>102424</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="8">
+        <v>102425</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="8">
+        <v>102426</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="8">
+        <v>102427</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="8">
+        <v>102428</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="8">
+        <v>102429</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="8">
+        <v>102430</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="8">
+        <v>102431</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="8">
+        <v>102432</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="8">
+        <v>102433</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="8">
+        <v>102434</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="8">
+        <v>102435</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="8">
+        <v>102436</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="8">
+        <v>102437</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="8">
+        <v>102438</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="8">
+        <v>102439</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="8">
+        <v>102440</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="8">
+        <v>102441</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="8">
+        <v>102442</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="8">
+        <v>102443</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="8">
+        <v>102444</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="8">
+        <v>102445</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="8">
+        <v>102446</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="8">
+        <v>102447</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="8">
+        <v>102448</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="8">
+        <v>102449</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="8">
+        <v>102450</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="8">
+        <v>102451</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="8">
+        <v>102452</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="8">
+        <v>102453</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="8">
+        <v>102454</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="8">
+        <v>102455</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="8">
+        <v>102456</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="8">
+        <v>102457</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="8">
+        <v>102458</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="8">
+        <v>102459</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="8">
+        <v>102460</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="8">
+        <v>102461</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="8">
+        <v>102462</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="8">
+        <v>102463</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="8">
+        <v>102464</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="8">
+        <v>102465</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="8">
+        <v>102466</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="8">
+        <v>102467</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="8">
+        <v>102468</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="8">
+        <v>102469</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="8">
+        <v>102470</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="8">
+        <v>102471</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="8">
+        <v>102472</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="8">
+        <v>102473</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="8">
+        <v>102474</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="8">
+        <v>102475</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="8">
+        <v>102476</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="8">
+        <v>102477</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="8">
+        <v>102478</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="8">
+        <v>102479</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="8">
+        <v>102480</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="8">
+        <v>102481</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="8">
+        <v>102482</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="8">
+        <v>102483</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="8">
+        <v>102484</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="8">
+        <v>102485</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="8">
+        <v>102486</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="8">
+        <v>102487</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="8">
+        <v>102488</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="8">
+        <v>102489</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="8">
+        <v>102490</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="8">
+        <v>102491</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="8">
+        <v>102492</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="8">
+        <v>102493</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="8">
+        <v>102494</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="8">
+        <v>102495</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="8">
+        <v>102496</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="8">
+        <v>102497</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="8">
+        <v>102498</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="8">
+        <v>102499</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="8">
+        <v>102500</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="8">
+        <v>102501</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="8">
+        <v>102502</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="8">
+        <v>102503</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="8">
+        <v>102504</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="8">
+        <v>102505</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="8">
+        <v>102506</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="8">
+        <v>102507</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="8">
+        <v>102508</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="8">
+        <v>102509</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="8">
+        <v>102510</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="8">
+        <v>102511</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="8">
+        <v>102512</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="8">
+        <v>102513</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="8">
+        <v>102514</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="8">
+        <v>102515</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="8">
+        <v>102516</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="8">
+        <v>102517</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="8">
+        <v>102518</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="8">
+        <v>102519</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="8">
+        <v>102520</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="8">
+        <v>102521</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="8">
+        <v>102522</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="8">
+        <v>102523</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="8">
+        <v>102524</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="8">
+        <v>102525</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="8">
+        <v>102526</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="8">
+        <v>102527</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="8">
+        <v>102528</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="8">
+        <v>102529</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="8">
+        <v>102530</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="8">
+        <v>102531</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="8">
+        <v>102532</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="8">
+        <v>102533</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="8">
+        <v>102534</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="8">
+        <v>102535</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="8">
+        <v>102536</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="8">
+        <v>102537</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="8">
+        <v>102538</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="8">
+        <v>102539</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="8">
+        <v>102540</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="8">
+        <v>102541</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="8">
+        <v>102542</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="8">
+        <v>102543</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="8">
+        <v>102544</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="8">
+        <v>102545</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="8">
+        <v>102546</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="8">
+        <v>102547</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="8">
+        <v>102548</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="8">
+        <v>102549</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="8">
+        <v>102550</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="8">
+        <v>102551</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="8">
+        <v>102552</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="8">
+        <v>102553</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="8">
+        <v>102554</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="8">
+        <v>102555</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="8">
+        <v>102556</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="8">
+        <v>102557</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="8">
+        <v>102558</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="8">
+        <v>102559</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="8">
+        <v>102560</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="8">
+        <v>102561</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="8">
+        <v>102562</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="8">
+        <v>102563</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="8">
+        <v>102564</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="8">
+        <v>102565</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="8">
+        <v>102566</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="8">
+        <v>102567</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="8">
+        <v>102568</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="8">
+        <v>102569</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="8">
+        <v>102570</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="8">
+        <v>102571</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="8">
+        <v>102572</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="8">
+        <v>102573</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="8">
+        <v>102574</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="8">
+        <v>102575</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="8">
+        <v>102576</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="8">
+        <v>102577</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="8">
+        <v>102578</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="8">
+        <v>102579</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" s="8">
+        <v>102580</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" s="8">
+        <v>102581</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="8">
+        <v>102582</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" s="8">
+        <v>102583</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" s="8">
+        <v>102584</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="8">
+        <v>102585</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" s="8">
+        <v>102586</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" s="8">
+        <v>102587</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" s="8">
+        <v>102588</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" s="8">
+        <v>102589</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" s="8">
+        <v>102590</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" s="8">
+        <v>102591</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" s="8">
+        <v>102592</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" s="8">
+        <v>102593</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" s="8">
+        <v>102594</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" s="8">
+        <v>102595</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" s="8">
+        <v>102596</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" s="8">
+        <v>102597</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" s="8">
+        <v>102598</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" s="8">
+        <v>102599</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" s="8">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" s="8">
+        <v>102601</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" s="8">
+        <v>102602</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" s="8">
+        <v>102603</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" s="8">
+        <v>102604</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" s="8">
+        <v>102605</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" s="8">
+        <v>102606</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" s="8">
+        <v>102607</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="8">
+        <v>102608</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" s="8">
+        <v>102609</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" s="8">
+        <v>102610</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" s="8">
+        <v>102611</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" s="8">
+        <v>102612</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" s="8">
+        <v>102613</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" s="8">
+        <v>102614</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" s="8">
+        <v>102615</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" s="8">
+        <v>102616</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" s="8">
+        <v>102617</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" s="8">
+        <v>102618</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" s="8">
+        <v>102619</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" s="8">
+        <v>102620</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" s="8">
+        <v>102621</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" s="8">
+        <v>102622</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" s="8">
+        <v>102623</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" s="8">
+        <v>102624</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" s="8">
+        <v>102625</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" s="8">
+        <v>102626</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" s="8">
+        <v>102627</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="8">
+        <v>102628</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" s="8">
+        <v>102629</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" s="8">
+        <v>102630</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" s="8">
+        <v>102631</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" s="8">
+        <v>102632</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" s="8">
+        <v>102633</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" s="8">
+        <v>102634</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" s="8">
+        <v>102635</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" s="8">
+        <v>102636</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" s="8">
+        <v>102637</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" s="8">
+        <v>102638</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" s="8">
+        <v>102639</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" s="8">
+        <v>102640</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" s="8">
+        <v>102641</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" s="8">
+        <v>102642</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="8">
+        <v>102643</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" s="8">
+        <v>102644</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" s="8">
+        <v>102645</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="8">
+        <v>102646</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="8">
+        <v>102647</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" s="8">
+        <v>102648</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" s="8">
+        <v>102649</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" s="8">
+        <v>102650</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" s="8">
+        <v>102651</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" s="8">
+        <v>102652</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" s="8">
+        <v>102653</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" s="8">
+        <v>102654</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" s="8">
+        <v>102655</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" s="8">
+        <v>102656</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" s="8">
+        <v>102657</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" s="8">
+        <v>102658</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" s="8">
+        <v>102659</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" s="8">
+        <v>102660</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" s="8">
+        <v>102661</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="8">
+        <v>102662</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" s="8">
+        <v>102663</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" s="8">
+        <v>102664</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B724" s="8">
+        <v>102665</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B725" s="8">
+        <v>102666</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B726" s="8">
+        <v>102667</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B727" s="8">
+        <v>102668</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B728" s="8">
+        <v>102669</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B729" s="8">
+        <v>102670</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B730" s="8">
+        <v>102671</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B731" s="8">
+        <v>102672</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B732" s="8">
+        <v>102673</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B733" s="8">
+        <v>102674</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B734" s="8">
+        <v>102675</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B735" s="8">
+        <v>102676</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B736" s="8">
+        <v>102677</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737" s="8">
+        <v>102678</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738" s="8">
+        <v>102679</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739" s="8">
+        <v>102680</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740" s="8">
+        <v>102681</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741" s="8">
+        <v>102682</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" s="8">
+        <v>102683</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B743" s="8">
+        <v>102684</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B744" s="8">
+        <v>102685</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B745" s="8">
+        <v>102686</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B746" s="8">
+        <v>102687</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B747" s="8">
+        <v>102688</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B748" s="8">
+        <v>102689</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B749" s="8">
+        <v>102690</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B750" s="8">
+        <v>102691</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B751" s="8">
+        <v>102692</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B752" s="8">
+        <v>102693</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B753" s="8">
+        <v>102694</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B754" s="8">
+        <v>102695</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B755" s="8">
+        <v>102696</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B756" s="8">
+        <v>102697</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B757" s="8">
+        <v>102698</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B758" s="8">
+        <v>102699</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B759" s="8">
+        <v>102700</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B760" s="8">
+        <v>102701</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B761" s="8">
+        <v>102702</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B762" s="8">
+        <v>102703</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B763" s="8">
+        <v>102704</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B764" s="8">
+        <v>102705</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B765" s="8">
+        <v>102706</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B766" s="8">
+        <v>102707</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B767" s="8">
+        <v>102708</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B768" s="8">
+        <v>102709</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B769" s="8">
+        <v>102710</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B770" s="8">
+        <v>102711</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B771" s="8">
+        <v>102712</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B772" s="8">
+        <v>102713</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B773" s="8">
+        <v>102714</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B774" s="8">
+        <v>102715</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B775" s="8">
+        <v>102716</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B776" s="8">
+        <v>102717</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B777" s="8">
+        <v>102718</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B778" s="8">
+        <v>102719</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B779" s="8">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B780" s="8">
+        <v>102721</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B781" s="8">
+        <v>102722</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B782" s="8">
+        <v>102723</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B783" s="8">
+        <v>102724</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B784" s="8">
+        <v>102725</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B785" s="8">
+        <v>102726</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B786" s="8">
+        <v>102727</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B787" s="8">
+        <v>102728</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B788" s="8">
+        <v>102729</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B789" s="8">
+        <v>102730</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B790" s="8">
+        <v>102731</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B791" s="8">
+        <v>102732</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B792" s="8">
+        <v>102733</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B793" s="8">
+        <v>102734</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B794" s="8">
+        <v>102735</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B795" s="8">
+        <v>102736</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B796" s="8">
+        <v>102737</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B797" s="8">
+        <v>102738</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B798" s="8">
+        <v>102739</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B799" s="8">
+        <v>102740</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B800" s="8">
+        <v>102741</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B801" s="8">
+        <v>102742</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B802" s="8">
+        <v>102743</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B803" s="8">
+        <v>102744</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B804" s="8">
+        <v>102745</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B805" s="8">
+        <v>102746</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B806" s="8">
+        <v>102747</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B807" s="8">
+        <v>102748</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B808" s="8">
+        <v>102749</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B809" s="8">
+        <v>102750</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B810" s="8">
+        <v>102751</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B811" s="8">
+        <v>102752</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B812" s="8">
+        <v>102753</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B813" s="8">
+        <v>102754</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B814" s="8">
+        <v>102755</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B815" s="8">
+        <v>102756</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B816" s="8">
+        <v>102757</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B817" s="8">
+        <v>102758</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B818" s="8">
+        <v>102759</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B819" s="8">
+        <v>102760</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B820" s="8">
+        <v>102761</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B821" s="8">
+        <v>102762</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B822" s="8">
+        <v>102763</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B823" s="8">
+        <v>102764</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B824" s="8">
+        <v>102765</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B825" s="8">
+        <v>102766</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B826" s="8">
+        <v>102767</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B827" s="8">
+        <v>102768</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B828" s="8">
+        <v>102769</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B829" s="8">
+        <v>102770</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B830" s="8">
+        <v>102771</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B831" s="8">
+        <v>102772</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B832" s="8">
+        <v>102773</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B833" s="8">
+        <v>102774</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B834" s="8">
+        <v>102775</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B835" s="8">
+        <v>102776</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B836" s="8">
+        <v>102777</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B837" s="8">
+        <v>102778</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B838" s="8">
+        <v>102779</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B839" s="8">
+        <v>102780</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B840" s="8">
+        <v>102781</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B841" s="8">
+        <v>102782</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B842" s="8">
+        <v>102783</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B843" s="8">
+        <v>102784</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B844" s="8">
+        <v>102785</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B845" s="8">
+        <v>102786</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B846" s="8">
+        <v>102787</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B847" s="8">
+        <v>102788</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B848" s="8">
+        <v>102789</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B849" s="8">
+        <v>102790</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B850" s="8">
+        <v>102791</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B851" s="8">
+        <v>102792</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" s="8">
+        <v>102793</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B853" s="8">
+        <v>102794</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B854" s="8">
+        <v>102795</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B855" s="8">
+        <v>102796</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B856" s="8">
+        <v>102797</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B857" s="8">
+        <v>102798</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B858" s="8">
+        <v>102799</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B859" s="8">
+        <v>102800</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B860" s="8">
+        <v>102801</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B861" s="8">
+        <v>102802</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B862" s="8">
+        <v>102803</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B863" s="8">
+        <v>102804</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B864" s="8">
+        <v>102805</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B865" s="8">
+        <v>102806</v>
+      </c>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B866" s="8">
+        <v>102807</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B867" s="8">
+        <v>102808</v>
+      </c>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B868" s="8">
+        <v>102809</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B869" s="8">
+        <v>102810</v>
+      </c>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B870" s="8">
+        <v>102811</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B871" s="8">
+        <v>102812</v>
+      </c>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B872" s="8">
+        <v>102813</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B873" s="8">
+        <v>102814</v>
+      </c>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B874" s="8">
+        <v>102815</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B875" s="8">
+        <v>102816</v>
+      </c>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B876" s="8">
+        <v>102817</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B877" s="8">
+        <v>102818</v>
+      </c>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B878" s="8">
+        <v>102819</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B879" s="8">
+        <v>102820</v>
+      </c>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B880" s="8">
+        <v>102821</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B881" s="8">
+        <v>102822</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B882" s="8">
+        <v>102823</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B883" s="8">
+        <v>102824</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B884" s="8">
+        <v>102825</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B885" s="8">
+        <v>102826</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B886" s="8">
+        <v>102827</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B887" s="8">
+        <v>102828</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B888" s="8">
+        <v>102829</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B889" s="8">
+        <v>102830</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B890" s="8">
+        <v>102831</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B891" s="8">
+        <v>102832</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B892" s="8">
+        <v>102833</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B893" s="8">
+        <v>102834</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B894" s="8">
+        <v>102835</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B895" s="8">
+        <v>102836</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B896" s="8">
+        <v>102837</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B897" s="8">
+        <v>102838</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B898" s="8">
+        <v>102839</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B899" s="8">
+        <v>102840</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B900" s="8">
+        <v>102841</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B901" s="8">
+        <v>102842</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B902" s="8">
+        <v>102843</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B903" s="8">
+        <v>102844</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B904" s="8">
+        <v>102845</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B905" s="8">
+        <v>102846</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B906" s="8">
+        <v>102847</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B907" s="8">
+        <v>102848</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B908" s="8">
+        <v>102849</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B909" s="8">
+        <v>102850</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B910" s="8">
+        <v>102851</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B911" s="8">
+        <v>102852</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B912" s="8">
+        <v>102853</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B913" s="8">
+        <v>102854</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B914" s="8">
+        <v>102855</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B915" s="8">
+        <v>102856</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B916" s="8">
+        <v>102857</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B917" s="8">
+        <v>102858</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B918" s="8">
+        <v>102859</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B919" s="8">
+        <v>102860</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B920" s="8">
+        <v>102861</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B921" s="8">
+        <v>102862</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B922" s="8">
+        <v>102863</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B923" s="8">
+        <v>102864</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B924" s="8">
+        <v>102865</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B925" s="8">
+        <v>102866</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B926" s="8">
+        <v>102867</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B927" s="8">
+        <v>102868</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B928" s="8">
+        <v>102869</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B929" s="8">
+        <v>102870</v>
+      </c>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B930" s="8">
+        <v>102871</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B931" s="8">
+        <v>102872</v>
+      </c>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B932" s="8">
+        <v>102873</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B933" s="8">
+        <v>102874</v>
+      </c>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B934" s="8">
+        <v>102875</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B935" s="8">
+        <v>102876</v>
+      </c>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B936" s="8">
+        <v>102877</v>
+      </c>
+    </row>
+    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B937" s="8">
+        <v>102878</v>
+      </c>
+    </row>
+    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B938" s="8">
+        <v>102879</v>
+      </c>
+    </row>
+    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B939" s="8">
+        <v>102880</v>
+      </c>
+    </row>
+    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B940" s="8">
+        <v>102881</v>
+      </c>
+    </row>
+    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B941" s="8">
+        <v>102882</v>
+      </c>
+    </row>
+    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B942" s="8">
+        <v>102883</v>
+      </c>
+    </row>
+    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B943" s="8">
+        <v>102884</v>
+      </c>
+    </row>
+    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B944" s="8">
+        <v>102885</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B945" s="8">
+        <v>102886</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B946" s="8">
+        <v>102887</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B947" s="8">
+        <v>102888</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B948" s="8">
+        <v>102889</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B949" s="8">
+        <v>102890</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B950" s="8">
+        <v>102891</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B951" s="8">
+        <v>102892</v>
+      </c>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B952" s="8">
+        <v>102893</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B953" s="8">
+        <v>102894</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B954" s="8">
+        <v>102895</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B955" s="8">
+        <v>102896</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B956" s="8">
+        <v>102897</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B957" s="8">
+        <v>102898</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B958" s="8">
+        <v>102899</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B959" s="8">
+        <v>102900</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B960" s="8">
+        <v>102901</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B961" s="8">
+        <v>102902</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B962" s="8">
+        <v>102903</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B963" s="8">
+        <v>102904</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B964" s="8">
+        <v>102905</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B965" s="8">
+        <v>102906</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B966" s="8">
+        <v>102907</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B967" s="8">
+        <v>102908</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B968" s="8">
+        <v>102909</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B969" s="8">
+        <v>102910</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B970" s="8">
+        <v>102911</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B971" s="8">
+        <v>102912</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B972" s="8">
+        <v>102913</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B973" s="8">
+        <v>102914</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B974" s="8">
+        <v>102915</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B975" s="8">
+        <v>102916</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B976" s="8">
+        <v>102917</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B977" s="8">
+        <v>102918</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B978" s="8">
+        <v>102919</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B979" s="8">
+        <v>102920</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B980" s="8">
+        <v>102921</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B981" s="8">
+        <v>102922</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B982" s="8">
+        <v>102923</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B983" s="8">
+        <v>102924</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B984" s="8">
+        <v>102925</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B985" s="8">
+        <v>102926</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B986" s="8">
+        <v>102927</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B987" s="8">
+        <v>102928</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B988" s="8">
+        <v>102929</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B989" s="8">
+        <v>102930</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B990" s="8">
+        <v>102931</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B991" s="8">
+        <v>102932</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B992" s="8">
+        <v>102933</v>
+      </c>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B993" s="8">
+        <v>102934</v>
+      </c>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B994" s="8">
+        <v>102935</v>
+      </c>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B995" s="8">
+        <v>102936</v>
+      </c>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B996" s="8">
+        <v>102937</v>
+      </c>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B997" s="8">
+        <v>102938</v>
+      </c>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B998" s="8">
+        <v>102939</v>
+      </c>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B999" s="8">
+        <v>102940</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1000" s="8">
+        <v>102941</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1001" s="8">
+        <v>102942</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="8">
+        <v>102943</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1003" s="8">
+        <v>102944</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1004" s="8">
+        <v>102945</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1005" s="8">
+        <v>102946</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1006" s="8">
+        <v>102947</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1007" s="8">
+        <v>102948</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1008" s="8">
+        <v>102949</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1009" s="8">
+        <v>102950</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1010" s="8">
+        <v>102951</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1011" s="8">
+        <v>102952</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1012" s="8">
+        <v>102953</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1013" s="8">
+        <v>102954</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1014" s="8">
+        <v>102955</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1015" s="8">
+        <v>102956</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1016" s="8">
+        <v>102957</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1017" s="8">
+        <v>102958</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1018" s="8">
+        <v>102959</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1019" s="8">
+        <v>102960</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1020" s="8">
+        <v>102961</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1021" s="8">
+        <v>102962</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1022" s="8">
+        <v>102963</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1023" s="8">
+        <v>102964</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1024" s="8">
+        <v>102965</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1025" s="8">
+        <v>102966</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1026" s="8">
+        <v>102967</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1027" s="8">
+        <v>102968</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1028" s="8">
+        <v>102969</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1029" s="8">
+        <v>102970</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1030" s="8">
+        <v>102971</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1031" s="8">
+        <v>102972</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1032" s="8">
+        <v>102973</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1033" s="8">
+        <v>102974</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1034" s="8">
+        <v>102975</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1035" s="8">
+        <v>102976</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1036" s="8">
+        <v>102977</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1037" s="8">
+        <v>102978</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1038" s="8">
+        <v>102979</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1039" s="8">
+        <v>102980</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1040" s="8">
+        <v>102981</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1041" s="8">
+        <v>102982</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1042" s="8">
+        <v>102983</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1043" s="8">
+        <v>102984</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1044" s="8">
+        <v>102985</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1045" s="8">
+        <v>102986</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1046" s="8">
+        <v>102987</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1047" s="8">
+        <v>102988</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048" s="8">
+        <v>102989</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1049" s="8">
+        <v>102990</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1050" s="8">
+        <v>102991</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1051" s="8">
+        <v>102992</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1052" s="8">
+        <v>102993</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1053" s="8">
+        <v>102994</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1054" s="8">
+        <v>102995</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1055" s="8">
+        <v>102996</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1056" s="8">
+        <v>102997</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1057" s="8">
+        <v>102998</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1058" s="8">
+        <v>102999</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1059" s="8">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1060" s="8">
+        <v>103001</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1061" s="8">
+        <v>103002</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1062" s="8">
+        <v>103003</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1063" s="8">
+        <v>103004</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1064" s="8">
+        <v>103005</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1065" s="8">
+        <v>103006</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1066" s="8">
+        <v>103007</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1067" s="8">
+        <v>103008</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1068" s="8">
+        <v>103009</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1069" s="8">
+        <v>103010</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1070" s="8">
+        <v>103011</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1071" s="8">
+        <v>103012</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1072" s="8">
+        <v>103013</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1073" s="8">
+        <v>103014</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1074" s="8">
+        <v>103015</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1075" s="8">
+        <v>103016</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1076" s="8">
+        <v>103017</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1077" s="8">
+        <v>103018</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1078" s="8">
+        <v>103019</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1079" s="8">
+        <v>103020</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1080" s="8">
+        <v>103021</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1081" s="8">
+        <v>103022</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1082" s="8">
+        <v>103023</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1083" s="8">
+        <v>103024</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1084" s="8">
+        <v>103025</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1085" s="8">
+        <v>103026</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1086" s="8">
+        <v>103027</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1087" s="8">
+        <v>103028</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1088" s="8">
+        <v>103029</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1089" s="8">
+        <v>103030</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1090" s="8">
+        <v>103031</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1091" s="8">
+        <v>103032</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1092" s="8">
+        <v>103033</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1093" s="8">
+        <v>103034</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1094" s="8">
+        <v>103035</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1095" s="8">
+        <v>103036</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1096" s="8">
+        <v>103037</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1097" s="8">
+        <v>103038</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1098" s="8">
+        <v>103039</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1099" s="8">
+        <v>103040</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1100" s="8">
+        <v>103041</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1101" s="8">
+        <v>103042</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1102" s="8">
+        <v>103043</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1103" s="8">
+        <v>103044</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1104" s="8">
+        <v>103045</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1105" s="8">
+        <v>103046</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1106" s="8">
+        <v>103047</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1107" s="8">
+        <v>103048</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1108" s="8">
+        <v>103049</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1109" s="8">
+        <v>103050</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1110" s="8">
+        <v>103051</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1111" s="8">
+        <v>103052</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1112" s="8">
+        <v>103053</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1113" s="8">
+        <v>103054</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1114" s="8">
+        <v>103055</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1115" s="8">
+        <v>103056</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1116" s="8">
+        <v>103057</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1117" s="8">
+        <v>103058</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1118" s="8">
+        <v>103059</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1119" s="8">
+        <v>103060</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1120" s="8">
+        <v>103061</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1121" s="8">
+        <v>103062</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1122" s="8">
+        <v>103063</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1123" s="8">
+        <v>103064</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1124" s="8">
+        <v>103065</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1125" s="8">
+        <v>103066</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1126" s="8">
+        <v>103067</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1127" s="8">
+        <v>103068</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1128" s="8">
+        <v>103069</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1129" s="8">
+        <v>103070</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1130" s="8">
+        <v>103071</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1131" s="8">
+        <v>103072</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1132" s="8">
+        <v>103073</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1133" s="8">
+        <v>103074</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1134" s="8">
+        <v>103075</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1135" s="8">
+        <v>103076</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1136" s="8">
+        <v>103077</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1137" s="8">
+        <v>103078</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1138" s="8">
+        <v>103079</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1139" s="8">
+        <v>103080</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1140" s="8">
+        <v>103081</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1141" s="8">
+        <v>103082</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1142" s="8">
+        <v>103083</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1143" s="8">
+        <v>103084</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1144" s="8">
+        <v>103085</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1145" s="8">
+        <v>103086</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1146" s="8">
+        <v>103087</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1147" s="8">
+        <v>103088</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1148" s="8">
+        <v>103089</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1149" s="8">
+        <v>103090</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1150" s="8">
+        <v>103091</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1151" s="8">
+        <v>103092</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1152" s="8">
+        <v>103093</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1153" s="8">
+        <v>103094</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1154" s="8">
+        <v>103095</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1155" s="8">
+        <v>103096</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1156" s="8">
+        <v>103097</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1157" s="8">
+        <v>103098</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1158" s="8">
+        <v>103099</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1159" s="8">
+        <v>103100</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1160" s="8">
+        <v>103101</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1161" s="8">
+        <v>103102</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1162" s="8">
+        <v>103103</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1163" s="8">
+        <v>103104</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1164" s="8">
+        <v>103105</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1165" s="8">
+        <v>103106</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1166" s="8">
+        <v>103107</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1167" s="8">
+        <v>103108</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1168" s="8">
+        <v>103109</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1169" s="8">
+        <v>103110</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1170" s="8">
+        <v>103111</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1171" s="8">
+        <v>103112</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1172" s="8">
+        <v>103113</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1173" s="8">
+        <v>103114</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1174" s="8">
+        <v>103115</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1175" s="8">
+        <v>103116</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1176" s="8">
+        <v>103117</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1177" s="8">
+        <v>103118</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1178" s="8">
+        <v>103119</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1179" s="8">
+        <v>103120</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1180" s="8">
+        <v>103121</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1181" s="8">
+        <v>103122</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1182" s="8">
+        <v>103123</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1183" s="8">
+        <v>103124</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1184" s="8">
+        <v>103125</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1185" s="8">
+        <v>103126</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1186" s="8">
+        <v>103127</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1187" s="8">
+        <v>103128</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1188" s="8">
+        <v>103129</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1189" s="8">
+        <v>103130</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1190" s="8">
+        <v>103131</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1191" s="8">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1192" s="8">
+        <v>103133</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1193" s="8">
+        <v>103134</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1194" s="8">
+        <v>103135</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1195" s="8">
+        <v>103136</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1196" s="8">
+        <v>103137</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1197" s="8">
+        <v>103138</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1198" s="8">
+        <v>103139</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1199" s="8">
+        <v>103140</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1200" s="8">
+        <v>103141</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1201" s="8">
+        <v>103142</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1202" s="8">
+        <v>103143</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1203" s="8">
+        <v>103144</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1204" s="8">
+        <v>103145</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1205" s="8">
+        <v>103146</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1206" s="8">
+        <v>103147</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1207" s="8">
+        <v>103148</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1208" s="8">
+        <v>103149</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1209" s="8">
+        <v>103150</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1210" s="8">
+        <v>103151</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1211" s="8">
+        <v>103152</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1212" s="8">
+        <v>103153</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1213" s="8">
+        <v>103154</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1214" s="8">
+        <v>103155</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1215" s="8">
+        <v>103156</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1216" s="8">
+        <v>103157</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1217" s="8">
+        <v>103158</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1218" s="8">
+        <v>103159</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1219" s="8">
+        <v>103160</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1220" s="8">
+        <v>103161</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1221" s="8">
+        <v>103162</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1222" s="8">
+        <v>103163</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1223" s="8">
+        <v>103164</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1224" s="8">
+        <v>103165</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1225" s="8">
+        <v>103166</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1226" s="8">
+        <v>103167</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1227" s="8">
+        <v>103168</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1228" s="8">
+        <v>103169</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1229" s="8">
+        <v>103170</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1230" s="8">
+        <v>103171</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1231" s="8">
+        <v>103172</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1232" s="8">
+        <v>103173</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1233" s="8">
+        <v>103174</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1234" s="8">
+        <v>103175</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1235" s="8">
+        <v>103176</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1236" s="8">
+        <v>103177</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1237" s="8">
+        <v>103178</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1238" s="8">
+        <v>103179</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1239" s="8">
+        <v>103180</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1240" s="8">
+        <v>103181</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1241" s="8">
+        <v>103182</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1242" s="8">
+        <v>103183</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1243" s="8">
+        <v>103184</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1244" s="8">
+        <v>103185</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1245" s="8">
+        <v>103186</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1246" s="8">
+        <v>103187</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1247" s="8">
+        <v>103188</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1248" s="8">
+        <v>103189</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1249" s="8">
+        <v>103190</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1250" s="8">
+        <v>103191</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1251" s="8">
+        <v>103192</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1252" s="8">
+        <v>103193</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1253" s="8">
+        <v>103194</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1254" s="8">
+        <v>103195</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1255" s="8">
+        <v>103196</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1256" s="8">
+        <v>103197</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1257" s="8">
+        <v>103198</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1258" s="8">
+        <v>103199</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1259" s="8">
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1260" s="8">
+        <v>103201</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1261" s="8">
+        <v>103202</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1262" s="8">
+        <v>103203</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1263" s="8">
+        <v>103204</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1264" s="8">
+        <v>103205</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1265" s="8">
+        <v>103206</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1266" s="8">
+        <v>103207</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1267" s="8">
+        <v>103208</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1268" s="8">
+        <v>103209</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1269" s="8">
+        <v>103210</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1270" s="8">
+        <v>103211</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1271" s="8">
+        <v>103212</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1272" s="8">
+        <v>103213</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1273" s="8">
+        <v>103214</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1274" s="8">
+        <v>103215</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1275" s="8">
+        <v>103216</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1276" s="8">
+        <v>103217</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1277" s="8">
+        <v>103218</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1278" s="8">
+        <v>103219</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1279" s="8">
+        <v>103220</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1280" s="8">
+        <v>103221</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1281" s="8">
+        <v>103222</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1282" s="8">
+        <v>103223</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1283" s="8">
+        <v>103224</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1284" s="8">
+        <v>103225</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1285" s="8">
+        <v>103226</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1286" s="8">
+        <v>103227</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1287" s="8">
+        <v>103228</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1288" s="8">
+        <v>103229</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1289" s="8">
+        <v>103230</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1290" s="8">
+        <v>103231</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1291" s="8">
+        <v>103232</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1292" s="8">
+        <v>103233</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1293" s="8">
+        <v>103234</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1294" s="8">
+        <v>103235</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1295" s="8">
+        <v>103236</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1296" s="8">
+        <v>103237</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1297" s="8">
+        <v>103238</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1298" s="8">
+        <v>103239</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1299" s="8">
+        <v>103240</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1300" s="8">
+        <v>103241</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1301" s="8">
+        <v>103242</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1302" s="8">
+        <v>103243</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1303" s="8">
+        <v>103244</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1304" s="8">
+        <v>103245</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1305" s="8">
+        <v>103246</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1306" s="8">
+        <v>103247</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1307" s="8">
+        <v>103248</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1308" s="8">
+        <v>103249</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1309" s="8">
+        <v>103250</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1310" s="8">
+        <v>103251</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1311" s="8">
+        <v>103252</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1312" s="8">
+        <v>103253</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1313" s="8">
+        <v>103254</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1314" s="8">
+        <v>103255</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1315" s="8">
+        <v>103256</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1316" s="8">
+        <v>103257</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1317" s="8">
+        <v>103258</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1318" s="8">
+        <v>103259</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1319" s="8">
+        <v>103260</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1320" s="8">
+        <v>103261</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1321" s="8">
+        <v>103262</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1322" s="8">
+        <v>103263</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1323" s="8">
+        <v>103264</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1324" s="8">
+        <v>103265</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1325" s="8">
+        <v>103266</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1326" s="8">
+        <v>103267</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1327" s="8">
+        <v>103268</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1328" s="8">
+        <v>103269</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1329" s="8">
+        <v>103270</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1330" s="8">
+        <v>103271</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1331" s="8">
+        <v>103272</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1332" s="8">
+        <v>103273</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1333" s="8">
+        <v>103274</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1334" s="8">
+        <v>103275</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1335" s="8">
+        <v>103276</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1336" s="8">
+        <v>103277</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1337" s="8">
+        <v>103278</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1338" s="8">
+        <v>103279</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1339" s="8">
+        <v>103280</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1340" s="8">
+        <v>103281</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1341" s="8">
+        <v>103282</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1342" s="8">
+        <v>103283</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1343" s="8">
+        <v>103284</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1344" s="8">
+        <v>103285</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1345" s="8">
+        <v>103286</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1346" s="8">
+        <v>103287</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1347" s="8">
+        <v>103288</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1348" s="8">
+        <v>103289</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1349" s="8">
+        <v>103290</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1350" s="8">
+        <v>103291</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1351" s="8">
+        <v>103292</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1352" s="8">
+        <v>103293</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1353" s="8">
+        <v>103294</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1354" s="8">
+        <v>103295</v>
+      </c>
+    </row>
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1355" s="8">
+        <v>103296</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1356" s="8">
+        <v>103297</v>
+      </c>
+    </row>
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1357" s="8">
+        <v>103298</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1358" s="8">
+        <v>103299</v>
+      </c>
+    </row>
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1359" s="8">
+        <v>103300</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1360" s="8">
+        <v>103301</v>
+      </c>
+    </row>
+    <row r="1361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1361" s="8">
+        <v>103302</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1362" s="8">
+        <v>103303</v>
+      </c>
+    </row>
+    <row r="1363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1363" s="8">
+        <v>103304</v>
+      </c>
+    </row>
+    <row r="1364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1364" s="8">
+        <v>103305</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1365" s="8">
+        <v>103306</v>
+      </c>
+    </row>
+    <row r="1366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1366" s="8">
+        <v>103307</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1367" s="8">
+        <v>103308</v>
+      </c>
+    </row>
+    <row r="1368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1368" s="8">
+        <v>103309</v>
+      </c>
+    </row>
+    <row r="1369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1369" s="8">
+        <v>103310</v>
+      </c>
+    </row>
+    <row r="1370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1370" s="8">
+        <v>103311</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1371" s="8">
+        <v>103312</v>
+      </c>
+    </row>
+    <row r="1372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1372" s="8">
+        <v>103313</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1373" s="8">
+        <v>103314</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1374" s="8">
+        <v>103315</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1375" s="8">
+        <v>103316</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1376" s="8">
+        <v>103317</v>
+      </c>
+    </row>
+    <row r="1377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1377" s="8">
+        <v>103318</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1378" s="8">
+        <v>103319</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1379" s="8">
+        <v>103320</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1380" s="8">
+        <v>103321</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1381" s="8">
+        <v>103322</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1382" s="8">
+        <v>103323</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1383" s="8">
+        <v>103324</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1384" s="8">
+        <v>103325</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1385" s="8">
+        <v>103326</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1386" s="8">
+        <v>103327</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1387" s="8">
+        <v>103328</v>
+      </c>
+    </row>
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1388" s="8">
+        <v>103329</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1389" s="8">
+        <v>103330</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1390" s="8">
+        <v>103331</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1391" s="8">
+        <v>103332</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1392" s="8">
+        <v>103333</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1393" s="8">
+        <v>103334</v>
+      </c>
+    </row>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1394" s="8">
+        <v>103335</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1395" s="8">
+        <v>103336</v>
+      </c>
+    </row>
+    <row r="1396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1396" s="8">
+        <v>103337</v>
+      </c>
+    </row>
+    <row r="1397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1397" s="8">
+        <v>103338</v>
+      </c>
+    </row>
+    <row r="1398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1398" s="8">
+        <v>103339</v>
+      </c>
+    </row>
+    <row r="1399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1399" s="8">
+        <v>103340</v>
+      </c>
+    </row>
+    <row r="1400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1400" s="8">
+        <v>103341</v>
+      </c>
+    </row>
+    <row r="1401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1401" s="8">
+        <v>103342</v>
+      </c>
+    </row>
+    <row r="1402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1402" s="8">
+        <v>103343</v>
+      </c>
+    </row>
+    <row r="1403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1403" s="8">
+        <v>103344</v>
+      </c>
+    </row>
+    <row r="1404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1404" s="8">
+        <v>103345</v>
+      </c>
+    </row>
+    <row r="1405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1405" s="8">
+        <v>103346</v>
+      </c>
+    </row>
+    <row r="1406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1406" s="8">
+        <v>103347</v>
+      </c>
+    </row>
+    <row r="1407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1407" s="8">
+        <v>103348</v>
+      </c>
+    </row>
+    <row r="1408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1408" s="8">
+        <v>103349</v>
+      </c>
+    </row>
+    <row r="1409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1409" s="8">
+        <v>103350</v>
+      </c>
+    </row>
+    <row r="1410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1410" s="8">
+        <v>103351</v>
+      </c>
+    </row>
+    <row r="1411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1411" s="8">
+        <v>103352</v>
+      </c>
+    </row>
+    <row r="1412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1412" s="8">
+        <v>103353</v>
+      </c>
+    </row>
+    <row r="1413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1413" s="8">
+        <v>103354</v>
+      </c>
+    </row>
+    <row r="1414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1414" s="8">
+        <v>103355</v>
+      </c>
+    </row>
+    <row r="1415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1415" s="8">
+        <v>103356</v>
+      </c>
+    </row>
+    <row r="1416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1416" s="8">
+        <v>103357</v>
+      </c>
+    </row>
+    <row r="1417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1417" s="8">
+        <v>103358</v>
+      </c>
+    </row>
+    <row r="1418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1418" s="8">
+        <v>103359</v>
+      </c>
+    </row>
+    <row r="1419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1419" s="8">
+        <v>103360</v>
+      </c>
+    </row>
+    <row r="1420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1420" s="8">
+        <v>103361</v>
+      </c>
+    </row>
+    <row r="1421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1421" s="8">
+        <v>103362</v>
+      </c>
+    </row>
+    <row r="1422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1422" s="8">
+        <v>103363</v>
+      </c>
+    </row>
+    <row r="1423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1423" s="8">
+        <v>103364</v>
+      </c>
+    </row>
+    <row r="1424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1424" s="8">
+        <v>103365</v>
+      </c>
+    </row>
+    <row r="1425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1425" s="8">
+        <v>103366</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1426" s="8">
+        <v>103367</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1427" s="8">
+        <v>103368</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1428" s="8">
+        <v>103369</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1429" s="8">
+        <v>103370</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1430" s="8">
+        <v>103371</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1431" s="8">
+        <v>103372</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1432" s="8">
+        <v>103373</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1433" s="8">
+        <v>103374</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1434" s="8">
+        <v>103375</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1435" s="8">
+        <v>103376</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1436" s="8">
+        <v>103377</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1437" s="8">
+        <v>103378</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1438" s="8">
+        <v>103379</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1439" s="8">
+        <v>103380</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1440" s="8">
+        <v>103381</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1441" s="8">
+        <v>103382</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1442" s="8">
+        <v>103383</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1443" s="8">
+        <v>103384</v>
+      </c>
+    </row>
+    <row r="1444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1444" s="8">
+        <v>103385</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1445" s="8">
+        <v>103386</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1446" s="8">
+        <v>103387</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1447" s="8">
+        <v>103388</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1448" s="8">
+        <v>103389</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1449" s="8">
+        <v>103390</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1450" s="8">
+        <v>103391</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1451" s="8">
+        <v>103392</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1452" s="8">
+        <v>103393</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1453" s="8">
+        <v>103394</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1454" s="8">
+        <v>103395</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1455" s="8">
+        <v>103396</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1456" s="8">
+        <v>103397</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1457" s="8">
+        <v>103398</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1458" s="8">
+        <v>103399</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1459" s="8">
+        <v>103400</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1460" s="8">
+        <v>103401</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1461" s="8">
+        <v>103402</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1462" s="8">
+        <v>103403</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1463" s="8">
+        <v>103404</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1464" s="8">
+        <v>103405</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1465" s="8">
+        <v>103406</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1466" s="8">
+        <v>103407</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1467" s="8">
+        <v>103408</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1468" s="8">
+        <v>103409</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1469" s="8">
+        <v>103410</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1470" s="8">
+        <v>103411</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1471" s="8">
+        <v>103412</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1472" s="8">
+        <v>103413</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1473" s="8">
+        <v>103414</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1474" s="8">
+        <v>103415</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1475" s="8">
+        <v>103416</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1476" s="8">
+        <v>103417</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1477" s="8">
+        <v>103418</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1478" s="8">
+        <v>103419</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1479" s="8">
+        <v>103420</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1480" s="8">
+        <v>103421</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1481" s="8">
+        <v>103422</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1482" s="8">
+        <v>103423</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1483" s="8">
+        <v>103424</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1484" s="8">
+        <v>103425</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1485" s="8">
+        <v>103426</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1486" s="8">
+        <v>103427</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1487" s="8">
+        <v>103428</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1488" s="8">
+        <v>103429</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1489" s="8">
+        <v>103430</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1490" s="8">
+        <v>103431</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1491" s="8">
+        <v>103432</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1492" s="8">
+        <v>103433</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1493" s="8">
+        <v>103434</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1494" s="8">
+        <v>103435</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1495" s="8">
+        <v>103436</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1496" s="8">
+        <v>103437</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1497" s="8">
+        <v>103438</v>
+      </c>
+    </row>
+    <row r="1498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1498" s="8">
+        <v>103439</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1499" s="8">
+        <v>103440</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1500" s="8">
+        <v>103441</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1501" s="8">
+        <v>103442</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1502" s="8">
+        <v>103443</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1503" s="8">
+        <v>103444</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1504" s="8">
+        <v>103445</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1505" s="8">
+        <v>103446</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1506" s="8">
+        <v>103447</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1507" s="8">
+        <v>103448</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1508" s="8">
+        <v>103449</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1509" s="8">
+        <v>103450</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1510" s="8">
+        <v>103451</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1511" s="8">
+        <v>103452</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1512" s="8">
+        <v>103453</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1513" s="8">
+        <v>103455</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1514" s="8">
+        <v>103456</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1515" s="8">
+        <v>103457</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1516" s="8">
+        <v>103458</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1517" s="8">
+        <v>103459</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1518" s="8">
+        <v>103460</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1519" s="8">
+        <v>103461</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1520" s="8">
+        <v>103462</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1521" s="8">
+        <v>103463</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1522" s="8">
+        <v>103464</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1523" s="8">
+        <v>103465</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1524" s="8">
+        <v>103466</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1525" s="8">
+        <v>103467</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1526" s="8">
+        <v>103468</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1527" s="8">
+        <v>103469</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1528" s="8">
+        <v>103470</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1529" s="8">
+        <v>103471</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1530" s="8">
+        <v>103472</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1531" s="8">
+        <v>103473</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1532" s="8">
+        <v>103474</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1533" s="8">
+        <v>103475</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1534" s="8">
+        <v>103476</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1535" s="8">
+        <v>103477</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1536" s="8">
+        <v>103478</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1537" s="8">
+        <v>103479</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1538" s="8">
+        <v>103480</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1539" s="8">
+        <v>103481</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1540" s="8">
+        <v>103482</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1541" s="8">
+        <v>103483</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1542" s="8">
+        <v>103484</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1543" s="8">
+        <v>103485</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1544" s="8">
+        <v>103486</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1545" s="8">
+        <v>103487</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1546" s="8">
+        <v>103488</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1547" s="8">
+        <v>103489</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1548" s="8">
+        <v>103490</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1549" s="8">
+        <v>103491</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1550" s="8">
+        <v>103492</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1551" s="8">
+        <v>103493</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1552" s="8">
+        <v>103494</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1553" s="8">
+        <v>103495</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1554" s="8">
+        <v>103496</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1555" s="8">
+        <v>103497</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1556" s="8">
+        <v>103498</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1557" s="8">
+        <v>103499</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1558" s="8">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1559" s="8">
+        <v>103501</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1560" s="8">
+        <v>103502</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1561" s="8">
+        <v>103503</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1562" s="8">
+        <v>103504</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1563" s="8">
+        <v>103505</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1564" s="8">
+        <v>103506</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1565" s="8">
+        <v>103507</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1566" s="8">
+        <v>103508</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1567" s="8">
+        <v>103509</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1568" s="8">
+        <v>103510</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1569" s="8">
+        <v>103511</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1570" s="8">
+        <v>103512</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1571" s="8">
+        <v>103513</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1572" s="8">
+        <v>103514</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1573" s="8">
+        <v>103515</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1574" s="8">
+        <v>103516</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1575" s="8">
+        <v>103517</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1576" s="8">
+        <v>103518</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1577" s="8">
+        <v>103519</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1578" s="8">
+        <v>103520</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1579" s="8">
+        <v>103521</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1580" s="8">
+        <v>103522</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1581" s="8">
+        <v>103523</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1582" s="8">
+        <v>103524</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1583" s="8">
+        <v>103525</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1584" s="8">
+        <v>103526</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1585" s="8">
+        <v>103527</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1586" s="8">
+        <v>103528</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1587" s="8">
+        <v>103529</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1588" s="8">
+        <v>103530</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1589" s="8">
+        <v>103531</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1590" s="8">
+        <v>103532</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1591" s="8">
+        <v>103533</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1592" s="8">
+        <v>103534</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1593" s="8">
+        <v>103535</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1594" s="8">
+        <v>103536</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1595" s="8">
+        <v>103537</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1596" s="8">
+        <v>103538</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1597" s="8">
+        <v>103539</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1598" s="8">
+        <v>103540</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1599" s="8">
+        <v>103541</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1600" s="8">
+        <v>103542</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1601" s="8">
+        <v>103543</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1602" s="8">
+        <v>103544</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1603" s="8">
+        <v>103545</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1604" s="8">
+        <v>103546</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1605" s="8">
+        <v>103547</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1606" s="8">
+        <v>103548</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1607" s="8">
+        <v>103549</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1608" s="8">
+        <v>103550</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1609" s="8">
+        <v>103551</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1610" s="8">
+        <v>103552</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1611" s="8">
+        <v>103553</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1612" s="8">
+        <v>103554</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1613" s="8">
+        <v>103555</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1614" s="8">
+        <v>103556</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1615" s="8">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1616" s="8">
+        <v>103558</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1617" s="8">
+        <v>103559</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1618" s="8">
+        <v>103560</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1619" s="8">
+        <v>103561</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1620" s="8">
+        <v>103562</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1621" s="8">
+        <v>103563</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1622" s="8">
+        <v>103564</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1623" s="8">
+        <v>103565</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1624" s="8">
+        <v>103566</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1625" s="8">
+        <v>103567</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1626" s="8">
+        <v>103568</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1627" s="8">
+        <v>103569</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1628" s="8">
+        <v>103570</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1629" s="8">
+        <v>103571</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1630" s="8">
+        <v>103572</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1631" s="8">
+        <v>103573</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1632" s="8">
+        <v>103574</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1633" s="8">
+        <v>103575</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1634" s="8">
+        <v>103576</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1635" s="8">
+        <v>103577</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1636" s="8">
+        <v>103578</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1637" s="8">
+        <v>103579</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1638" s="8">
+        <v>103580</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1639" s="8">
+        <v>103581</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1640" s="8">
+        <v>103582</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1641" s="8">
+        <v>103583</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1642" s="8">
+        <v>103584</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1643" s="8">
+        <v>103585</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1644" s="8">
+        <v>103586</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1645" s="8">
+        <v>103587</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1646" s="8">
+        <v>103588</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1647" s="8">
+        <v>103589</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1648" s="8">
+        <v>103590</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1649" s="8">
+        <v>103591</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1650" s="8">
+        <v>103592</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1651" s="8">
+        <v>103593</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1652" s="8">
+        <v>103594</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1653" s="8">
+        <v>103595</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1654" s="8">
+        <v>103596</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1655" s="8">
+        <v>103597</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1656" s="8">
+        <v>103598</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1657" s="8">
+        <v>103599</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1658" s="8">
+        <v>103600</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1659" s="8">
+        <v>103601</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1660" s="8">
+        <v>103602</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1661" s="8">
+        <v>103603</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1662" s="8">
+        <v>103604</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1663" s="8">
+        <v>103605</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1664" s="8">
+        <v>103606</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1665" s="8">
+        <v>103607</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1666" s="8">
+        <v>103608</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1667" s="8">
+        <v>103609</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1668" s="8">
+        <v>103610</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1669" s="8">
+        <v>103611</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1670" s="8">
+        <v>103612</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1671" s="8">
+        <v>103613</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1672" s="8">
+        <v>103614</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1673" s="8">
+        <v>103615</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1674" s="8">
+        <v>103616</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1675" s="8">
+        <v>103617</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1676" s="8">
+        <v>103618</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1677" s="8">
+        <v>103619</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1678" s="8">
+        <v>103620</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1679" s="8">
+        <v>103621</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1680" s="8">
+        <v>103622</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1681" s="8">
+        <v>103623</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1682" s="8">
+        <v>103624</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1683" s="8">
+        <v>103625</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1684" s="8">
+        <v>103626</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1685" s="8">
+        <v>103627</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1686" s="8">
+        <v>103628</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1687" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
